--- a/static/templates/tour_template.xlsx
+++ b/static/templates/tour_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Work_Freelance\Tour\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FCFAD2-13CA-438E-8C47-6D050920E9E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C938D90-F5BE-4332-8205-0F698680CB93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
   </bookViews>
   <sheets>
     <sheet name="Tour &amp; Motorbike rental" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>BOOKING CONFIRMATION</t>
   </si>
@@ -39,15 +39,9 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>Booking date</t>
-  </si>
-  <si>
     <t>BOOKING NO.</t>
   </si>
   <si>
-    <t>Booking No.</t>
-  </si>
-  <si>
     <t>Lamai Bayview Boutique Resort</t>
   </si>
   <si>
@@ -78,15 +72,6 @@
     <t>TEL : +66 77 420 789    E-MAIL : info@lamaibayviewboutique.co.th</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Name &amp; Surname</t>
-  </si>
-  <si>
-    <t>Staff Name</t>
-  </si>
-  <si>
     <t>STAFF</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
   </si>
   <si>
     <t>STATUS</t>
-  </si>
-  <si>
-    <t>PAYMENT</t>
   </si>
   <si>
     <t>DISCOUNT</t>
@@ -377,9 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -405,15 +384,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -452,6 +425,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,68 +875,64 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="25.5"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="24.6"/>
   <cols>
-    <col min="1" max="1" width="1.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="1.21875" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.77734375" style="2"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="1.21875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.77734375" style="2"/>
+    <col min="1" max="1" width="1.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="1.1796875" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.81640625" style="2"/>
+    <col min="7" max="7" width="11.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="1.1796875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="J1" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="26.25">
-      <c r="A2" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11">
       <c r="I3" s="6"/>
-      <c r="J3" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:11">
       <c r="I4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1"/>
     <row r="6" spans="1:11">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -964,7 +942,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -972,160 +950,134 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="7.9" customHeight="1"/>
+    <row r="12" spans="1:11" ht="7.95" customHeight="1"/>
     <row r="13" spans="1:11">
       <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="F13" s="11"/>
       <c r="H13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="7.9" customHeight="1"/>
+        <v>21</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="7.95" customHeight="1"/>
     <row r="15" spans="1:11">
       <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="J15" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="15"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="B17" s="15"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="B18" s="15"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="B19" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="24"/>
+      <c r="B19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="12">
-        <f>SUM(J16:J19)</f>
-        <v>0</v>
-      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:11" ht="24.6" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1">
       <c r="B22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1"/>
     <row r="24" spans="1:11" s="10" customFormat="1">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="10" customFormat="1">
-      <c r="B25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="10" customFormat="1"/>
     <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
@@ -1141,48 +1093,44 @@
     </row>
     <row r="28" spans="1:11">
       <c r="J28" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="26.25">
-      <c r="A29" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="27">
+      <c r="A29" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:11">
       <c r="I30" s="6"/>
-      <c r="J30" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:11">
       <c r="I31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="6" customHeight="1"/>
     <row r="33" spans="2:10">
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1"/>
     </row>
@@ -1192,7 +1140,7 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1"/>
     </row>
@@ -1201,158 +1149,140 @@
         <v>1</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" s="10" customFormat="1" ht="7.9" customHeight="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="10" customFormat="1" ht="7.95" customHeight="1"/>
     <row r="40" spans="2:10" s="10" customFormat="1">
       <c r="B40" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="7.9" customHeight="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="7.95" customHeight="1"/>
     <row r="42" spans="2:10">
       <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="I42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="8" t="s">
+      <c r="J42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="43" spans="2:10" s="10" customFormat="1">
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="22"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="36"/>
     </row>
     <row r="44" spans="2:10" s="10" customFormat="1">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="22"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="36"/>
     </row>
     <row r="45" spans="2:10" s="10" customFormat="1">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="36"/>
     </row>
     <row r="46" spans="2:10" s="10" customFormat="1">
-      <c r="B46" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="24"/>
+      <c r="B46" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" spans="2:10" s="10" customFormat="1">
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="12">
-        <f>SUM(J43:J46)</f>
-        <v>0</v>
-      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" s="37"/>
     </row>
     <row r="48" spans="2:10" ht="24.6" customHeight="1">
       <c r="B48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="2:9" s="10" customFormat="1">
       <c r="B49" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:9" s="10" customFormat="1"/>
     <row r="51" spans="2:9" s="10" customFormat="1">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
       <c r="I51" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" s="10" customFormat="1">
-      <c r="B52" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" s="10" customFormat="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A2:K2"/>
@@ -1365,7 +1295,7 @@
     <mergeCell ref="B46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/static/templates/tour_template.xlsx
+++ b/static/templates/tour_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Work_Freelance\Tour\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C938D90-F5BE-4332-8205-0F698680CB93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB4C5D-2D93-4A18-B933-DBF955AA81B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>BOOKING CONFIRMATION</t>
   </si>
@@ -48,9 +48,6 @@
     <t>1/1 Moo4, Maret, Ko Samui, Surat Thani, 84310</t>
   </si>
   <si>
-    <t>Room</t>
-  </si>
-  <si>
     <t>ROOM NO.</t>
   </si>
   <si>
@@ -84,19 +81,10 @@
     <t>DUPLICATE</t>
   </si>
   <si>
-    <t>Name&amp;Surmane</t>
-  </si>
-  <si>
     <t>Price / Quantity</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>TIME</t>
-  </si>
-  <si>
-    <t>Travel date</t>
   </si>
   <si>
     <t>REMARK</t>
@@ -118,7 +106,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9">
@@ -336,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -381,9 +370,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -396,44 +382,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -876,7 +883,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:I20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="24.6"/>
@@ -895,23 +902,23 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="J1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="27">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="I3" s="6"/>
@@ -921,7 +928,7 @@
       <c r="I4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1"/>
     <row r="6" spans="1:11">
@@ -942,7 +949,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -950,116 +957,114 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="10"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="7.95" customHeight="1"/>
     <row r="13" spans="1:11">
       <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>6</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="7.95" customHeight="1"/>
     <row r="15" spans="1:11">
       <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="14"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="17"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="B17" s="14"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="B18" s="14"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="36"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="B19" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="35"/>
+      <c r="B19" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="37"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:11" ht="24.6" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1">
       <c r="B22" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -1069,15 +1074,21 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="10" customFormat="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="10" customFormat="1">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+    </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
@@ -1093,23 +1104,23 @@
     </row>
     <row r="28" spans="1:11">
       <c r="J28" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="27">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11">
       <c r="I30" s="6"/>
@@ -1140,7 +1151,7 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1"/>
     </row>
@@ -1148,123 +1159,112 @@
       <c r="B38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="39" spans="2:10" s="10" customFormat="1" ht="7.95" customHeight="1"/>
     <row r="40" spans="2:10" s="10" customFormat="1">
       <c r="B40" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="F40" s="11"/>
       <c r="H40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="7.95" customHeight="1"/>
     <row r="42" spans="2:10">
       <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="8" t="s">
+      <c r="I42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="43" spans="2:10" s="10" customFormat="1">
-      <c r="B43" s="14"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
       <c r="F43" s="16"/>
       <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="39"/>
       <c r="J43" s="36"/>
     </row>
     <row r="44" spans="2:10" s="10" customFormat="1">
-      <c r="B44" s="14"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="39"/>
       <c r="J44" s="36"/>
     </row>
     <row r="45" spans="2:10" s="10" customFormat="1">
-      <c r="B45" s="14"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="39"/>
       <c r="J45" s="36"/>
     </row>
     <row r="46" spans="2:10" s="10" customFormat="1">
-      <c r="B46" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="35"/>
+      <c r="B46" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" spans="2:10" s="10" customFormat="1">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="37"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="31"/>
+      <c r="J47" s="25"/>
     </row>
     <row r="48" spans="2:10" ht="24.6" customHeight="1">
       <c r="B48" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="2:9" s="10" customFormat="1">
       <c r="B49" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H49" s="6"/>
     </row>
@@ -1274,17 +1274,27 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" s="10" customFormat="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" s="10" customFormat="1">
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="C42:G42"/>

--- a/static/templates/tour_template.xlsx
+++ b/static/templates/tour_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Work_Freelance\Tour\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB4C5D-2D93-4A18-B933-DBF955AA81B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB9C43F-5C44-499B-A975-E12670803C4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
   </bookViews>
@@ -106,8 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9">
@@ -325,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,95 +351,90 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -882,8 +876,8 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="24.6"/>
@@ -906,19 +900,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="27">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
       <c r="I3" s="6"/>
@@ -978,13 +972,13 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="7" t="s">
         <v>17</v>
       </c>
@@ -996,63 +990,63 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="42"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="36"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="B17" s="42"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="36"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="B18" s="42"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="36"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="33"/>
-      <c r="J19" s="37"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="32" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="31" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="33"/>
-      <c r="J20" s="38"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:11" ht="24.6" customHeight="1">
       <c r="B21" s="2" t="s">
@@ -1083,11 +1077,11 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5"/>
@@ -1108,19 +1102,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="27">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11">
       <c r="I30" s="6"/>
@@ -1133,35 +1127,35 @@
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="6" customHeight="1"/>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:11">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:11">
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:10" ht="6" customHeight="1">
+    <row r="35" spans="2:11" ht="6" customHeight="1">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:11">
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="38" spans="2:10" s="10" customFormat="1">
+    <row r="38" spans="2:11" s="10" customFormat="1">
       <c r="B38" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:10" s="10" customFormat="1" ht="7.95" customHeight="1"/>
-    <row r="40" spans="2:10" s="10" customFormat="1">
+    <row r="39" spans="2:11" s="10" customFormat="1" ht="7.95" customHeight="1"/>
+    <row r="40" spans="2:11" s="10" customFormat="1">
       <c r="B40" s="10" t="s">
         <v>6</v>
       </c>
@@ -1173,18 +1167,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="7.95" customHeight="1"/>
-    <row r="42" spans="2:10">
+    <row r="41" spans="2:11" ht="7.95" customHeight="1"/>
+    <row r="42" spans="2:11">
       <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
       <c r="H42" s="8" t="s">
         <v>9</v>
       </c>
@@ -1195,66 +1189,71 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:10" s="10" customFormat="1">
-      <c r="B43" s="42"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="36"/>
-    </row>
-    <row r="44" spans="2:10" s="10" customFormat="1">
-      <c r="B44" s="42"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="36"/>
-    </row>
-    <row r="45" spans="2:10" s="10" customFormat="1">
-      <c r="B45" s="42"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="36"/>
-    </row>
-    <row r="46" spans="2:10" s="10" customFormat="1">
-      <c r="B46" s="30" t="s">
+    <row r="43" spans="2:11" s="10" customFormat="1">
+      <c r="B43" s="19"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="38"/>
+    </row>
+    <row r="44" spans="2:11" s="10" customFormat="1">
+      <c r="B44" s="19"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="38"/>
+    </row>
+    <row r="45" spans="2:11" s="10" customFormat="1">
+      <c r="B45" s="19"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="38"/>
+    </row>
+    <row r="46" spans="2:11" s="10" customFormat="1">
+      <c r="B46" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="24"/>
-    </row>
-    <row r="47" spans="2:10" s="10" customFormat="1">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="30" t="s">
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="38"/>
+    </row>
+    <row r="47" spans="2:11" s="10" customFormat="1">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="31"/>
-      <c r="J47" s="25"/>
-    </row>
-    <row r="48" spans="2:10" ht="24.6" customHeight="1">
+      <c r="I47" s="42"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="38"/>
+    </row>
+    <row r="48" spans="2:11" ht="24.6" customHeight="1">
       <c r="B48" s="2" t="s">
         <v>19</v>
       </c>
@@ -1283,11 +1282,11 @@
       </c>
     </row>
     <row r="52" spans="2:9" s="10" customFormat="1">
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/static/templates/tour_template.xlsx
+++ b/static/templates/tour_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Work_Freelance\Tour\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB9C43F-5C44-499B-A975-E12670803C4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86D8711-61F2-4D79-884A-75197B597173}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -346,26 +346,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,15 +385,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,14 +402,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -876,8 +884,8 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="24.6"/>
@@ -900,19 +908,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="27">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11">
       <c r="I3" s="6"/>
@@ -951,6 +959,7 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D11" s="42"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="7.95" customHeight="1"/>
@@ -958,27 +967,28 @@
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D13" s="42"/>
       <c r="E13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="42"/>
       <c r="H13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:11" ht="7.95" customHeight="1"/>
     <row r="15" spans="1:11">
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="7" t="s">
         <v>17</v>
       </c>
@@ -990,63 +1000,63 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="B17" s="19"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="B18" s="19"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="31" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="36"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="24.6" customHeight="1">
       <c r="B21" s="2" t="s">
@@ -1064,24 +1074,24 @@
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1"/>
     <row r="24" spans="1:11" s="10" customFormat="1">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5"/>
@@ -1102,19 +1112,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="27">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11">
       <c r="I30" s="6"/>
@@ -1153,32 +1163,35 @@
       <c r="B38" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="D38" s="43"/>
     </row>
     <row r="39" spans="2:11" s="10" customFormat="1" ht="7.95" customHeight="1"/>
     <row r="40" spans="2:11" s="10" customFormat="1">
       <c r="B40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="D40" s="43"/>
+      <c r="E40" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="H40" s="12" t="s">
+      <c r="F40" s="44"/>
+      <c r="H40" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="I40" s="43"/>
     </row>
     <row r="41" spans="2:11" ht="7.95" customHeight="1"/>
     <row r="42" spans="2:11">
       <c r="B42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
       <c r="H42" s="8" t="s">
         <v>9</v>
       </c>
@@ -1190,43 +1203,43 @@
       </c>
     </row>
     <row r="43" spans="2:11" s="10" customFormat="1">
-      <c r="B43" s="19"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="38"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="29"/>
     </row>
     <row r="44" spans="2:11" s="10" customFormat="1">
-      <c r="B44" s="19"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="38"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="29"/>
     </row>
     <row r="45" spans="2:11" s="10" customFormat="1">
-      <c r="B45" s="19"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="38"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="29"/>
     </row>
     <row r="46" spans="2:11" s="10" customFormat="1">
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="41"/>
@@ -1235,23 +1248,23 @@
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="38"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="29"/>
     </row>
     <row r="47" spans="2:11" s="10" customFormat="1">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="40" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="38"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="29"/>
     </row>
     <row r="48" spans="2:11" ht="24.6" customHeight="1">
       <c r="B48" s="2" t="s">
@@ -1269,24 +1282,24 @@
     </row>
     <row r="50" spans="2:9" s="10" customFormat="1"/>
     <row r="51" spans="2:9" s="10" customFormat="1">
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
       <c r="I51" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="2:9" s="10" customFormat="1">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="12">
